--- a/media/kuzets_download_ur.xlsx
+++ b/media/kuzets_download_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FFFC40-CF2B-8C40-8F59-77C252541D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106B5E29-EC3A-9245-861D-699010787E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1486,7 +1486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2085,6 +2085,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7711,8 +7714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -7844,11 +7847,11 @@
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:19" s="167" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="204" t="s">
+      <c r="A7" s="204" t="s">
         <v>297</v>
       </c>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
       <c r="D7" s="204"/>
       <c r="E7" s="204"/>
       <c r="F7" s="204"/>
@@ -7860,15 +7863,15 @@
       <c r="L7" s="204"/>
       <c r="M7" s="204"/>
       <c r="N7" s="204"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
     </row>
     <row r="8" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="O8" s="125">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="118" customFormat="1" ht="107" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="118" customFormat="1" ht="111" x14ac:dyDescent="0.15">
       <c r="A9" s="129" t="s">
         <v>4</v>
       </c>
@@ -8390,11 +8393,11 @@
     <row r="36" spans="1:16" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="210"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
       <c r="H36" s="208"/>
       <c r="I36" s="208"/>
       <c r="L36" s="122"/>
@@ -8405,7 +8408,6 @@
     </row>
     <row r="37" spans="1:16" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C37" s="161"/>
-      <c r="D37" s="161"/>
       <c r="F37" s="209"/>
       <c r="G37" s="209"/>
       <c r="H37" s="209"/>
@@ -9666,12 +9668,11 @@
       <c r="R106" s="127"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C7:N7"/>
+  <mergeCells count="4">
     <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="C36:G36"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="F37:M37"/>
+    <mergeCell ref="A7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
@@ -33916,7 +33917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="118" customFormat="1" ht="107" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="118" customFormat="1" ht="111" x14ac:dyDescent="0.15">
       <c r="A9" s="128" t="s">
         <v>301</v>
       </c>

--- a/media/kuzets_download_ur.xlsx
+++ b/media/kuzets_download_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106B5E29-EC3A-9245-861D-699010787E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FF6A52-D1D4-E64A-9DC5-1DC3902C0842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="318">
   <si>
     <t>№</t>
   </si>
@@ -1486,7 +1486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2058,6 +2058,15 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2083,9 +2092,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2533,20 +2539,20 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="204" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
       <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6555,13 +6561,13 @@
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
-      <c r="D94" s="202" t="s">
+      <c r="D94" s="205" t="s">
         <v>285</v>
       </c>
-      <c r="E94" s="202"/>
-      <c r="F94" s="203"/>
-      <c r="G94" s="203"/>
-      <c r="H94" s="203"/>
+      <c r="E94" s="205"/>
+      <c r="F94" s="206"/>
+      <c r="G94" s="206"/>
+      <c r="H94" s="206"/>
       <c r="I94" s="34"/>
       <c r="J94" s="110">
         <f>E91+E92</f>
@@ -6603,13 +6609,13 @@
       <c r="E96" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F96" s="202" t="s">
+      <c r="F96" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="G96" s="202"/>
-      <c r="H96" s="202"/>
-      <c r="I96" s="203"/>
-      <c r="J96" s="203"/>
+      <c r="G96" s="205"/>
+      <c r="H96" s="205"/>
+      <c r="I96" s="206"/>
+      <c r="J96" s="206"/>
     </row>
     <row r="97" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13"/>
@@ -7714,8 +7720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -7847,31 +7853,25 @@
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:19" s="167" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="204" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-    </row>
-    <row r="8" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="O8" s="125">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="118" customFormat="1" ht="111" x14ac:dyDescent="0.15">
+      <c r="A7" s="207"/>
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="207"/>
+    </row>
+    <row r="8" spans="1:19" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:19" s="118" customFormat="1" ht="107" x14ac:dyDescent="0.15">
       <c r="A9" s="129" t="s">
         <v>4</v>
       </c>
@@ -8030,8 +8030,8 @@
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
       <c r="P15" s="137"/>
-      <c r="Q15" s="205"/>
-      <c r="R15" s="206"/>
+      <c r="Q15" s="208"/>
+      <c r="R15" s="209"/>
     </row>
     <row r="16" spans="1:19" s="138" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
@@ -8361,8 +8361,8 @@
     <row r="34" spans="1:16" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
-      <c r="C34" s="184"/>
-      <c r="D34" s="160"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="202"/>
       <c r="E34" s="121"/>
       <c r="F34" s="118"/>
       <c r="G34" s="118"/>
@@ -8377,8 +8377,8 @@
     <row r="35" spans="1:16" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="136"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="203"/>
       <c r="E35" s="121"/>
       <c r="F35" s="118"/>
       <c r="G35" s="118"/>
@@ -8394,12 +8394,12 @@
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="138"/>
-      <c r="D36" s="210"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="138"/>
       <c r="F36" s="138"/>
       <c r="G36" s="138"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="211"/>
       <c r="L36" s="122"/>
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
@@ -8408,14 +8408,14 @@
     </row>
     <row r="37" spans="1:16" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C37" s="161"/>
-      <c r="F37" s="209"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
-      <c r="M37" s="209"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="212"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="212"/>
+      <c r="J37" s="212"/>
+      <c r="K37" s="212"/>
+      <c r="L37" s="212"/>
+      <c r="M37" s="212"/>
       <c r="N37" s="118"/>
       <c r="O37" s="122"/>
       <c r="P37" s="40"/>
@@ -9826,20 +9826,20 @@
       <c r="A7" s="163"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="204" t="s">
+      <c r="D7" s="207" t="s">
         <v>286</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
@@ -10243,8 +10243,8 @@
         <v>10960</v>
       </c>
       <c r="Q15" s="137"/>
-      <c r="R15" s="205"/>
-      <c r="S15" s="206"/>
+      <c r="R15" s="208"/>
+      <c r="S15" s="209"/>
     </row>
     <row r="16" spans="1:19" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="139">
@@ -11008,18 +11008,18 @@
       <c r="A36" s="118"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="207" t="s">
+      <c r="D36" s="210" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="208">
+      <c r="E36" s="210"/>
+      <c r="F36" s="210"/>
+      <c r="G36" s="210"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="211">
         <f>E34+E35</f>
         <v>142820</v>
       </c>
-      <c r="J36" s="208"/>
+      <c r="J36" s="211"/>
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
       <c r="O36" s="122"/>
@@ -11032,14 +11032,14 @@
         <v>21</v>
       </c>
       <c r="E37" s="161"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
-      <c r="M37" s="209"/>
-      <c r="N37" s="209"/>
+      <c r="G37" s="212"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="212"/>
+      <c r="J37" s="212"/>
+      <c r="K37" s="212"/>
+      <c r="L37" s="212"/>
+      <c r="M37" s="212"/>
+      <c r="N37" s="212"/>
       <c r="O37" s="118"/>
       <c r="P37" s="122"/>
       <c r="Q37" s="40"/>
@@ -12522,20 +12522,20 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="204" t="s">
         <v>289</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
       <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -16544,13 +16544,13 @@
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
-      <c r="D94" s="202" t="s">
+      <c r="D94" s="205" t="s">
         <v>288</v>
       </c>
-      <c r="E94" s="202"/>
-      <c r="F94" s="203"/>
-      <c r="G94" s="203"/>
-      <c r="H94" s="203"/>
+      <c r="E94" s="205"/>
+      <c r="F94" s="206"/>
+      <c r="G94" s="206"/>
+      <c r="H94" s="206"/>
       <c r="I94" s="34"/>
       <c r="J94" s="110">
         <f>E91+E92</f>
@@ -16592,13 +16592,13 @@
       <c r="E96" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F96" s="202" t="s">
+      <c r="F96" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="G96" s="202"/>
-      <c r="H96" s="202"/>
-      <c r="I96" s="203"/>
-      <c r="J96" s="203"/>
+      <c r="G96" s="205"/>
+      <c r="H96" s="205"/>
+      <c r="I96" s="206"/>
+      <c r="J96" s="206"/>
     </row>
     <row r="97" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13"/>
@@ -17846,20 +17846,20 @@
       <c r="A7" s="163"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="204" t="s">
+      <c r="D7" s="207" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
@@ -18263,8 +18263,8 @@
         <v>10960</v>
       </c>
       <c r="Q15" s="137"/>
-      <c r="R15" s="205"/>
-      <c r="S15" s="206"/>
+      <c r="R15" s="208"/>
+      <c r="S15" s="209"/>
     </row>
     <row r="16" spans="1:19" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="139">
@@ -19028,18 +19028,18 @@
       <c r="A36" s="118"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="207" t="s">
+      <c r="D36" s="210" t="s">
         <v>288</v>
       </c>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="208">
+      <c r="E36" s="210"/>
+      <c r="F36" s="210"/>
+      <c r="G36" s="210"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="211">
         <f>E34+E35</f>
         <v>142820</v>
       </c>
-      <c r="J36" s="208"/>
+      <c r="J36" s="211"/>
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
       <c r="O36" s="122"/>
@@ -19052,14 +19052,14 @@
         <v>21</v>
       </c>
       <c r="E37" s="161"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
-      <c r="M37" s="209"/>
-      <c r="N37" s="209"/>
+      <c r="G37" s="212"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="212"/>
+      <c r="J37" s="212"/>
+      <c r="K37" s="212"/>
+      <c r="L37" s="212"/>
+      <c r="M37" s="212"/>
+      <c r="N37" s="212"/>
       <c r="O37" s="118"/>
       <c r="P37" s="122"/>
       <c r="Q37" s="40"/>
@@ -20542,20 +20542,20 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="204" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
       <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -24565,13 +24565,13 @@
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
-      <c r="D94" s="202" t="s">
+      <c r="D94" s="205" t="s">
         <v>293</v>
       </c>
-      <c r="E94" s="202"/>
-      <c r="F94" s="203"/>
-      <c r="G94" s="203"/>
-      <c r="H94" s="203"/>
+      <c r="E94" s="205"/>
+      <c r="F94" s="206"/>
+      <c r="G94" s="206"/>
+      <c r="H94" s="206"/>
       <c r="I94" s="34"/>
       <c r="J94" s="110">
         <f>E91+E92</f>
@@ -24613,13 +24613,13 @@
       <c r="E96" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F96" s="202" t="s">
+      <c r="F96" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="G96" s="202"/>
-      <c r="H96" s="202"/>
-      <c r="I96" s="203"/>
-      <c r="J96" s="203"/>
+      <c r="G96" s="205"/>
+      <c r="H96" s="205"/>
+      <c r="I96" s="206"/>
+      <c r="J96" s="206"/>
     </row>
     <row r="97" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13"/>
@@ -25867,20 +25867,20 @@
       <c r="A7" s="163"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="204" t="s">
+      <c r="D7" s="207" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
@@ -26344,8 +26344,8 @@
         <v>10960</v>
       </c>
       <c r="Q16" s="137"/>
-      <c r="R16" s="205"/>
-      <c r="S16" s="206"/>
+      <c r="R16" s="208"/>
+      <c r="S16" s="209"/>
     </row>
     <row r="17" spans="1:18" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A17" s="139">
@@ -27109,18 +27109,18 @@
       <c r="A37" s="118"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="207" t="s">
+      <c r="D37" s="210" t="s">
         <v>293</v>
       </c>
-      <c r="E37" s="207"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="208">
+      <c r="E37" s="210"/>
+      <c r="F37" s="210"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="211">
         <f>E35+E36</f>
         <v>143199</v>
       </c>
-      <c r="J37" s="208"/>
+      <c r="J37" s="211"/>
       <c r="M37" s="122"/>
       <c r="N37" s="122"/>
       <c r="O37" s="122"/>
@@ -27133,14 +27133,14 @@
         <v>21</v>
       </c>
       <c r="E38" s="161"/>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
-      <c r="I38" s="209"/>
-      <c r="J38" s="209"/>
-      <c r="K38" s="209"/>
-      <c r="L38" s="209"/>
-      <c r="M38" s="209"/>
-      <c r="N38" s="209"/>
+      <c r="G38" s="212"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="212"/>
+      <c r="J38" s="212"/>
+      <c r="K38" s="212"/>
+      <c r="L38" s="212"/>
+      <c r="M38" s="212"/>
+      <c r="N38" s="212"/>
       <c r="O38" s="118"/>
       <c r="P38" s="122"/>
       <c r="Q38" s="40"/>
@@ -28623,20 +28623,20 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="204" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
       <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -32594,13 +32594,13 @@
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
-      <c r="D93" s="202" t="s">
+      <c r="D93" s="205" t="s">
         <v>296</v>
       </c>
-      <c r="E93" s="202"/>
-      <c r="F93" s="203"/>
-      <c r="G93" s="203"/>
-      <c r="H93" s="203"/>
+      <c r="E93" s="205"/>
+      <c r="F93" s="206"/>
+      <c r="G93" s="206"/>
+      <c r="H93" s="206"/>
       <c r="I93" s="34"/>
       <c r="J93" s="110">
         <f>E90+E91</f>
@@ -32642,13 +32642,13 @@
       <c r="E95" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F95" s="202" t="s">
+      <c r="F95" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="G95" s="202"/>
-      <c r="H95" s="202"/>
-      <c r="I95" s="203"/>
-      <c r="J95" s="203"/>
+      <c r="G95" s="205"/>
+      <c r="H95" s="205"/>
+      <c r="I95" s="206"/>
+      <c r="J95" s="206"/>
     </row>
     <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="13"/>
@@ -33895,20 +33895,20 @@
       <c r="A7" s="163"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="204" t="s">
+      <c r="D7" s="207" t="s">
         <v>297</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="207"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
@@ -33917,7 +33917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="118" customFormat="1" ht="111" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="118" customFormat="1" ht="107" x14ac:dyDescent="0.15">
       <c r="A9" s="128" t="s">
         <v>301</v>
       </c>
@@ -34314,8 +34314,8 @@
         <v>10960</v>
       </c>
       <c r="Q15" s="137"/>
-      <c r="R15" s="205"/>
-      <c r="S15" s="206"/>
+      <c r="R15" s="208"/>
+      <c r="S15" s="209"/>
     </row>
     <row r="16" spans="1:19" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="139">
@@ -35117,18 +35117,18 @@
       <c r="A36" s="118"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="207" t="s">
+      <c r="D36" s="210" t="s">
         <v>296</v>
       </c>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="208">
+      <c r="E36" s="210"/>
+      <c r="F36" s="210"/>
+      <c r="G36" s="210"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="211">
         <f>E34+E35</f>
         <v>151120</v>
       </c>
-      <c r="J36" s="208"/>
+      <c r="J36" s="211"/>
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
       <c r="O36" s="122"/>
@@ -35141,14 +35141,14 @@
         <v>21</v>
       </c>
       <c r="E37" s="161"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
-      <c r="M37" s="209"/>
-      <c r="N37" s="209"/>
+      <c r="G37" s="212"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="212"/>
+      <c r="J37" s="212"/>
+      <c r="K37" s="212"/>
+      <c r="L37" s="212"/>
+      <c r="M37" s="212"/>
+      <c r="N37" s="212"/>
       <c r="O37" s="118"/>
       <c r="P37" s="122"/>
       <c r="Q37" s="40"/>
@@ -36635,20 +36635,20 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="204" t="s">
         <v>311</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
       <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -40622,13 +40622,13 @@
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
-      <c r="D93" s="202" t="s">
+      <c r="D93" s="205" t="s">
         <v>312</v>
       </c>
-      <c r="E93" s="202"/>
-      <c r="F93" s="203"/>
-      <c r="G93" s="203"/>
-      <c r="H93" s="203"/>
+      <c r="E93" s="205"/>
+      <c r="F93" s="206"/>
+      <c r="G93" s="206"/>
+      <c r="H93" s="206"/>
       <c r="I93" s="34"/>
       <c r="J93" s="110">
         <f>E90+E91</f>
@@ -40670,13 +40670,13 @@
       <c r="E95" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F95" s="202" t="s">
+      <c r="F95" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="G95" s="202"/>
-      <c r="H95" s="202"/>
-      <c r="I95" s="203"/>
-      <c r="J95" s="203"/>
+      <c r="G95" s="205"/>
+      <c r="H95" s="205"/>
+      <c r="I95" s="206"/>
+      <c r="J95" s="206"/>
     </row>
     <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="13"/>

--- a/media/kuzets_download_ur.xlsx
+++ b/media/kuzets_download_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FF6A52-D1D4-E64A-9DC5-1DC3902C0842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51320EF6-63AA-0D40-A25A-BA17CAB3B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1486,7 +1486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2094,6 +2094,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7721,7 +7724,7 @@
   <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:P7"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -8361,7 +8364,7 @@
     <row r="34" spans="1:16" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
-      <c r="C34" s="201"/>
+      <c r="C34" s="213"/>
       <c r="D34" s="202"/>
       <c r="E34" s="121"/>
       <c r="F34" s="118"/>
